--- a/biology/Biochimie/Hydroxyméthylglutaryl-CoA_réductase/Hydroxyméthylglutaryl-CoA_réductase.xlsx
+++ b/biology/Biochimie/Hydroxyméthylglutaryl-CoA_réductase/Hydroxyméthylglutaryl-CoA_réductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydroxym%C3%A9thylglutaryl-CoA_r%C3%A9ductase</t>
+          <t>Hydroxyméthylglutaryl-CoA_réductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hydroxyméthylglutaryl-CoA réductase (HMG-CoA réductase, HMGCR) est une oxydoréductase intervenant dans la voie du mévalonate, dont elle régule l'intensité. La voie du mévalonate est une voie métabolique importante chez les eucaryotes supérieurs et certaines bactéries car elle produit les précurseurs du cholestérol et d'autres terpénoïdes. Son gène est le HMGCR situé sur le chromosome 5 humain. Elle est la cible pharmacologique des statines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hydroxyméthylglutaryl-CoA réductase (HMG-CoA réductase, HMGCR) est une oxydoréductase intervenant dans la voie du mévalonate, dont elle régule l'intensité. La voie du mévalonate est une voie métabolique importante chez les eucaryotes supérieurs et certaines bactéries car elle produit les précurseurs du cholestérol et d'autres terpénoïdes. Son gène est le HMGCR situé sur le chromosome 5 humain. Elle est la cible pharmacologique des statines.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hydroxym%C3%A9thylglutaryl-CoA_r%C3%A9ductase</t>
+          <t>Hydroxyméthylglutaryl-CoA_réductase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'HMG-CoA réductase est une protéine transmembranaire appartenant à la membrane du réticulum endoplasmique. On a longtemps pensé qu'elle était constituée de sept domaines transmembranaires, le site actif se trouvant sur le long segment C-terminal dans le cytosol, mais de récentes études ont montré qu'elle est en fait constituée de huit domaines transmembranaires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'HMG-CoA réductase est une protéine transmembranaire appartenant à la membrane du réticulum endoplasmique. On a longtemps pensé qu'elle était constituée de sept domaines transmembranaires, le site actif se trouvant sur le long segment C-terminal dans le cytosol, mais de récentes études ont montré qu'elle est en fait constituée de huit domaines transmembranaires.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hydroxym%C3%A9thylglutaryl-CoA_r%C3%A9ductase</t>
+          <t>Hydroxyméthylglutaryl-CoA_réductase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'HMG-CoA réductase catalyse la réaction :
 L'hydroxyméthylglutaryl-CoA réductase (NADPH) (EC 1.1.1.34) est l'équivalent de cette enzyme fonctionnant avec le NADPH au lieu du NADH.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hydroxym%C3%A9thylglutaryl-CoA_r%C3%A9ductase</t>
+          <t>Hydroxyméthylglutaryl-CoA_réductase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une diminution de la fonction de l'enzyme serait protecteur dans le risque de survenue d'un cancer de l'ovaire[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une diminution de la fonction de l'enzyme serait protecteur dans le risque de survenue d'un cancer de l'ovaire.
 Les statines sont des médicaments inhibiteurs de l'enzyme et utilisés dans la prévention des maladies cardiovasculaires. 
 </t>
         </is>
